--- a/resource/variable_list.xlsx
+++ b/resource/variable_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgp\Documents\bezerkeley\research\isol-sys-database\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FFADBB-E959-448D-9110-E9C9744BCA59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1874D6C-D4C1-437F-A0C9-F4DD75A09F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAD6645-98EC-450A-BBC3-E4452305A39D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAD6645-98EC-450A-BBC3-E4452305A39D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="196">
   <si>
     <t>Name</t>
   </si>
@@ -455,9 +455,6 @@
     <t>Troubleshooting value. 0 if OK, -3 if not OK</t>
   </si>
   <si>
-    <t>From loss DataFrames only</t>
-  </si>
-  <si>
     <t>cost_*</t>
   </si>
   <si>
@@ -504,13 +501,136 @@
   </si>
   <si>
     <t>Loss of B, C, D, or E component groups, including mean, standard deviation, and percentile information. Recorded as nan if building requires replacement 100% of the times. B=structural, C=partitions, D=MEP, E=storage</t>
+  </si>
+  <si>
+    <t>delta_a</t>
+  </si>
+  <si>
+    <t>Allowable drift when designing the superstructure</t>
+  </si>
+  <si>
+    <t>d_bearing</t>
+  </si>
+  <si>
+    <t>Bearing diameter of LRB (rubber part)</t>
+  </si>
+  <si>
+    <t>d_lead</t>
+  </si>
+  <si>
+    <t>Lead plug diameter of LRB</t>
+  </si>
+  <si>
+    <t>t_r</t>
+  </si>
+  <si>
+    <t>Total thickness of the rubber pads in LRB</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Thickness of a single layer of rubber in LRB</t>
+  </si>
+  <si>
+    <t>n_layers</t>
+  </si>
+  <si>
+    <t>Number of LRB rubber layers</t>
+  </si>
+  <si>
+    <t>S_pad</t>
+  </si>
+  <si>
+    <t>Shape factor for LRB</t>
+  </si>
+  <si>
+    <t>S_2</t>
+  </si>
+  <si>
+    <t>Pad-only shape factor of LRB</t>
+  </si>
+  <si>
+    <t>collapse_prob</t>
+  </si>
+  <si>
+    <t>Probability of collapse, calculated from drift fragility</t>
+  </si>
+  <si>
+    <t>log_collapse_prob</t>
+  </si>
+  <si>
+    <t>Log probability of collapse</t>
+  </si>
+  <si>
+    <t>log_drift</t>
+  </si>
+  <si>
+    <t>Log of maximum drift</t>
+  </si>
+  <si>
+    <t>T_ratio_e</t>
+  </si>
+  <si>
+    <t>Ratio of effective isolation period T_M to the estimated fixed base period from ASCE 7</t>
+  </si>
+  <si>
+    <t>Bm</t>
+  </si>
+  <si>
+    <t>ASCE damping reduction factor associated with zeta</t>
+  </si>
+  <si>
+    <t>k2, k1</t>
+  </si>
+  <si>
+    <t>Post-yielding and pre-yielding stiffnesses of the bearings</t>
+  </si>
+  <si>
+    <t>/in</t>
+  </si>
+  <si>
+    <t>replacement_cost</t>
+  </si>
+  <si>
+    <t>Arbitrary replacement cost from $600*building area</t>
+  </si>
+  <si>
+    <t>total_cmp_cost</t>
+  </si>
+  <si>
+    <t>Total repair cost of the components assuming 100% damage</t>
+  </si>
+  <si>
+    <t>cmp_replace_cost_ratio</t>
+  </si>
+  <si>
+    <t>Ratio of the true component cost to the arbitrary cost. For troubleshooting only</t>
+  </si>
+  <si>
+    <t>median_cost_ratio</t>
+  </si>
+  <si>
+    <t>Repair cost ratio of the building against the arbitrary replacement cost.</t>
+  </si>
+  <si>
+    <t>cmp_cost_ratio</t>
+  </si>
+  <si>
+    <t>Repair cost ratio of the building against the 100% damage case.</t>
+  </si>
+  <si>
+    <t>The same set of variables exist for downtime</t>
+  </si>
+  <si>
+    <t>From loss file only</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +645,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +663,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -548,11 +680,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -561,9 +694,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -876,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADA4715-EDFF-4519-96B7-ECB586025636}">
-  <dimension ref="A2:I66"/>
+  <dimension ref="A2:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,10 +1104,10 @@
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1012,10 +1150,10 @@
       <c r="F8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1105,22 +1243,25 @@
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>33</v>
+      <c r="D14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1129,12 +1270,12 @@
         <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1143,15 +1284,12 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1160,7 +1298,7 @@
         <v>58</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
@@ -1168,41 +1306,41 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>48</v>
@@ -1211,7 +1349,7 @@
         <v>58</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
         <v>44</v>
@@ -1219,24 +1357,24 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>48</v>
@@ -1245,54 +1383,57 @@
         <v>59</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
         <v>48</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1301,12 +1442,12 @@
         <v>58</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
         <v>48</v>
@@ -1315,15 +1456,12 @@
         <v>58</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F27" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
         <v>48</v>
@@ -1332,7 +1470,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s">
         <v>73</v>
@@ -1340,90 +1478,90 @@
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>72</v>
       </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="31" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>74</v>
       </c>
-      <c r="C30" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="C31" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E31" s="3" t="s">
+      <c r="D32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" t="s">
-        <v>73</v>
-      </c>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="D33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" t="s">
-        <v>83</v>
+      <c r="D33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
@@ -1432,15 +1570,15 @@
         <v>59</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F34" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -1449,7 +1587,7 @@
         <v>59</v>
       </c>
       <c r="E35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F35" t="s">
         <v>73</v>
@@ -1457,7 +1595,7 @@
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" t="s">
         <v>48</v>
@@ -1466,7 +1604,7 @@
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
         <v>73</v>
@@ -1474,33 +1612,33 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>91</v>
+      <c r="E37" t="s">
+        <v>89</v>
       </c>
       <c r="F37" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" t="s">
         <v>48</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F38" t="s">
         <v>44</v>
@@ -1508,7 +1646,7 @@
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C39" t="s">
         <v>48</v>
@@ -1517,32 +1655,32 @@
         <v>58</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
         <v>48</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F40" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1551,7 +1689,7 @@
         <v>59</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
         <v>98</v>
@@ -1559,16 +1697,16 @@
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C42" t="s">
         <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F42" t="s">
         <v>98</v>
@@ -1576,50 +1714,50 @@
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>104</v>
       </c>
-      <c r="C43" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E43" s="1" t="s">
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="45" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>106</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="F44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" t="s">
-        <v>48</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>108</v>
       </c>
       <c r="F45" t="s">
         <v>13</v>
@@ -1627,7 +1765,7 @@
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C46" t="s">
         <v>48</v>
@@ -1636,7 +1774,7 @@
         <v>58</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F46" t="s">
         <v>13</v>
@@ -1644,7 +1782,7 @@
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C47" t="s">
         <v>48</v>
@@ -1653,7 +1791,7 @@
         <v>58</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F47" t="s">
         <v>13</v>
@@ -1661,92 +1799,92 @@
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>114</v>
       </c>
-      <c r="C48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="1" t="s">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>116</v>
       </c>
-      <c r="C49" t="s">
-        <v>48</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E49" s="1" t="s">
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" t="s">
-        <v>48</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>123</v>
       </c>
       <c r="C52" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F52" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
         <v>117</v>
@@ -1754,16 +1892,16 @@
       <c r="D53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E53" t="s">
-        <v>126</v>
+      <c r="E53" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="F53" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C54" t="s">
         <v>117</v>
@@ -1771,16 +1909,16 @@
       <c r="D54" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>130</v>
+      <c r="E54" t="s">
+        <v>126</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C55" t="s">
         <v>117</v>
@@ -1789,32 +1927,32 @@
         <v>59</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F55" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C56" t="s">
         <v>117</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F56" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C57" t="s">
         <v>117</v>
@@ -1823,134 +1961,457 @@
         <v>134</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F57" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F59" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="F60" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="F61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F62" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="C63" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C64" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="C65" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="2:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>117</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>179</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F73" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" t="s">
+        <v>117</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" t="s">
+        <v>117</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>149</v>
+      </c>
+      <c r="C83" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" t="s">
+        <v>117</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C66" t="s">
-        <v>117</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F66" t="s">
-        <v>142</v>
+      <c r="F85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/resource/variable_list.xlsx
+++ b/resource/variable_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgp\Documents\bezerkeley\research\isol-sys-database\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1874D6C-D4C1-437F-A0C9-F4DD75A09F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68978D7F-B718-46F4-BBCC-13F09F241A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ABAD6645-98EC-450A-BBC3-E4452305A39D}"/>
   </bookViews>
@@ -476,9 +476,6 @@
     <t>time_u_*</t>
   </si>
   <si>
-    <t>Repair downtime assuming serial work (2x faster). Includes mean, standard deviation, min, max, 10th, median and 90th percentile data.</t>
-  </si>
-  <si>
     <t>collapse_freq</t>
   </si>
   <si>
@@ -624,6 +621,9 @@
   </si>
   <si>
     <t>From loss file only</t>
+  </si>
+  <si>
+    <t>Repair downtime assuming serial work. Includes mean, standard deviation, min, max, 10th, median and 90th percentile data.</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ADA4715-EDFF-4519-96B7-ECB586025636}">
   <dimension ref="A2:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1244,7 +1244,7 @@
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
@@ -1253,7 +1253,7 @@
         <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>20</v>
@@ -1986,16 +1986,16 @@
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="C59" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F59" t="s">
         <v>73</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="C60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>160</v>
       </c>
       <c r="F60" t="s">
         <v>73</v>
@@ -2020,16 +2020,16 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C61" t="s">
-        <v>48</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="F61" t="s">
         <v>73</v>
@@ -2037,16 +2037,16 @@
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="C62" t="s">
-        <v>48</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>164</v>
       </c>
       <c r="F62" t="s">
         <v>73</v>
@@ -2054,16 +2054,16 @@
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" t="s">
+        <v>48</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="C63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F63" t="s">
         <v>20</v>
@@ -2071,16 +2071,16 @@
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="C64" t="s">
-        <v>48</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="F64" t="s">
         <v>20</v>
@@ -2088,16 +2088,16 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="F65" t="s">
         <v>20</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C67" t="s">
         <v>117</v>
@@ -2114,7 +2114,7 @@
         <v>58</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F67" t="s">
         <v>20</v>
@@ -2122,7 +2122,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C68" t="s">
         <v>117</v>
@@ -2131,7 +2131,7 @@
         <v>58</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F68" t="s">
         <v>20</v>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
         <v>117</v>
@@ -2148,7 +2148,7 @@
         <v>58</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F69" t="s">
         <v>20</v>
@@ -2156,7 +2156,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
         <v>117</v>
@@ -2165,7 +2165,7 @@
         <v>58</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" t="s">
         <v>20</v>
@@ -2173,16 +2173,16 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
+        <v>178</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C71" t="s">
-        <v>48</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="F71" t="s">
         <v>20</v>
@@ -2190,24 +2190,24 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" t="s">
+        <v>48</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C72" t="s">
-        <v>48</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" t="s">
         <v>182</v>
-      </c>
-      <c r="F72" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C73" t="s">
         <v>117</v>
@@ -2216,7 +2216,7 @@
         <v>58</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F73" t="s">
         <v>141</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C74" t="s">
         <v>117</v>
@@ -2233,7 +2233,7 @@
         <v>58</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F74" t="s">
         <v>141</v>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C75" t="s">
         <v>117</v>
@@ -2250,7 +2250,7 @@
         <v>58</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F75" t="s">
         <v>20</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C76" t="s">
         <v>117</v>
@@ -2267,12 +2267,12 @@
         <v>58</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B77" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>117</v>
@@ -2281,13 +2281,13 @@
         <v>58</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2335,7 +2335,7 @@
         <v>58</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>146</v>
+        <v>195</v>
       </c>
       <c r="F81" t="s">
         <v>144</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C82" t="s">
         <v>117</v>
@@ -2352,7 +2352,7 @@
         <v>58</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F82" t="s">
         <v>20</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" t="s">
         <v>117</v>
@@ -2369,7 +2369,7 @@
         <v>58</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
         <v>20</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B84" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>117</v>
@@ -2386,7 +2386,7 @@
         <v>58</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>20</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="85" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
         <v>117</v>
@@ -2403,7 +2403,7 @@
         <v>58</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
         <v>141</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
